--- a/CollectionSoftware3/AP SELVAM STORE.xlsx
+++ b/CollectionSoftware3/AP SELVAM STORE.xlsx
@@ -452,13 +452,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>25-07-2023</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3483</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-    </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
